--- a/Calibration/Asthma states/CHARM 5 to 3 state calibration - 5sep2023.xlsx
+++ b/Calibration/Asthma states/CHARM 5 to 3 state calibration - 5sep2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaya\Box\AA_Sigal_Documents\Climate - Health\Modeling\Calibration\Asthma states\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smaya\Box\AA_Sigal_Documents\Climate - Health\Wildfire Asthma Microsim\Modeling\Calibration\Asthma states\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951D85BC-FA34-4011-B174-0D9E65553D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375B5492-CADB-4DFD-B50D-A59281779DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{95115A8E-B4AD-A141-83E3-2764AA2AD3E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{95115A8E-B4AD-A141-83E3-2764AA2AD3E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibrate2distribution" sheetId="1" r:id="rId1"/>
@@ -255,12 +255,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="AK11" authorId="0" shapeId="0" xr:uid="{DB74097D-8D3E-4712-A723-4F4BBEB8215C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Maya, Sigal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+p.1.212, value A</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL11" authorId="0" shapeId="0" xr:uid="{433E7CBA-FE0C-4B1D-9777-042F6D57477D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Maya, Sigal:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+p.1.212, value B</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t>calculated based on 1-5 values + co-distrib</t>
   </si>
@@ -497,6 +545,15 @@
   </si>
   <si>
     <t>4 - poorly controlled</t>
+  </si>
+  <si>
+    <t>Model @ Equilibrium, 1-wk probs, slower return to baseline</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>(recalibrate2)</t>
   </si>
 </sst>
 </file>
@@ -828,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1172,6 +1229,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,6 +1274,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1235,6 +1308,425 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> to return to baseline if all becomes "4" at week 0</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Check-calib2transprob'!$AH$18:$AH$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Check-calib2transprob'!$AM$18:$AM$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.19416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67515000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48130347610000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36498809680911803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29478938183989256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25216867154067268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22613278084378663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21012921565877984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20023101727245685</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19407126131547547</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19021485059765786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-309B-40B3-8D47-F98893F06973}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Check-calib2transprob'!$AH$18:$AH$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Check-calib2transprob'!$AM$18:$AM$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.19416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67515000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48130347610000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36498809680911803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29478938183989256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25216867154067268</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22613278084378663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21012921565877984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20023101727245685</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19407126131547547</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19021485059765786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-309B-40B3-8D47-F98893F06973}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="803671663"/>
+        <c:axId val="268531279"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="803671663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="268531279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="268531279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803671663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1346,6 +1838,47 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>294564</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>238087</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>103767</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD2068B-7994-CC59-4CB5-140DD75EE1F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1648,10 +2181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9454E13-E3C1-3E46-8368-D2DB362951ED}">
-  <dimension ref="B1:P32"/>
+  <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1667,10 +2200,12 @@
     <col min="12" max="12" width="9.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="15" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="12.08203125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
@@ -1678,11 +2213,11 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" ht="8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="18"/>
       <c r="D2" s="38"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
@@ -1695,7 +2230,7 @@
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
     </row>
-    <row r="4" spans="2:16" s="28" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" s="28" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="29" t="s">
         <v>10</v>
       </c>
@@ -1715,7 +2250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C5" s="13" t="s">
         <v>29</v>
       </c>
@@ -1750,7 +2285,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C6" s="13" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +2308,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
@@ -1801,29 +2336,29 @@
       <c r="M7" s="16"/>
       <c r="P7" s="32"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="D9" s="115" t="s">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="D9" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118" t="s">
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-    </row>
-    <row r="10" spans="2:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="124"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+    </row>
+    <row r="10" spans="2:18" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D10" s="17" t="s">
         <v>34</v>
       </c>
@@ -1846,8 +2381,14 @@
       <c r="P10" s="15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q10" s="115" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C11" s="33" t="s">
         <v>77</v>
       </c>
@@ -1888,8 +2429,15 @@
         <f>O11-L11</f>
         <v>6.1666666666666675E-3</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q11" s="37">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="R11" s="30">
+        <f>Q11-L11</f>
+        <v>2.2166666666666668E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C12" s="33" t="s">
         <v>78</v>
       </c>
@@ -1933,8 +2481,15 @@
         <f t="shared" ref="P12:P15" si="4">O12-L12</f>
         <v>-1.8166666666666692E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q12" s="37">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="R12" s="30">
+        <f>Q12-L12</f>
+        <v>3.8333333333333275E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C13" s="33" t="s">
         <v>12</v>
       </c>
@@ -1974,8 +2529,15 @@
         <f t="shared" si="4"/>
         <v>1.6000000000000014E-2</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q13" s="37">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="R13" s="30">
+        <f>Q13-L13</f>
+        <v>-6.9999999999999507E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C14" s="33" t="s">
         <v>50</v>
       </c>
@@ -2018,8 +2580,15 @@
         <f t="shared" si="4"/>
         <v>-1.4228187919462787E-3</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q14" s="37">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="R14" s="30">
+        <f>Q14-L14</f>
+        <v>-1.0422818791946287E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C15" s="33" t="s">
         <v>49</v>
       </c>
@@ -2060,8 +2629,15 @@
         <f t="shared" si="4"/>
         <v>-2.5771812080536971E-3</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="Q15" s="37">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="R15" s="30">
+        <f>Q15-L15</f>
+        <v>-8.5771812080536886E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2099,6 +2675,14 @@
         <f>ABS(P11)+ABS(P12)+ABS(P13)+ABS(P14)+ABS(P15)</f>
         <v>4.433333333333335E-2</v>
       </c>
+      <c r="Q16" s="3">
+        <f t="shared" ref="Q16" si="6">SUM(Q11:Q15)</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="16">
+        <f>ABS(R11)+ABS(R12)+ABS(R13)+ABS(R14)+ABS(R15)</f>
+        <v>5.1999999999999921E-2</v>
+      </c>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D17" s="17" t="s">
@@ -2110,15 +2694,15 @@
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D18" s="1">
-        <f t="shared" ref="D18:F22" si="6">D11*$M11*100</f>
+        <f t="shared" ref="D18:F22" si="7">D11*$M11*100</f>
         <v>5.8999999999999995</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G18" s="3">
@@ -2128,73 +2712,73 @@
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.696000000000002</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.4039999999999981</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" ref="G19:G22" si="7">SUM(D19:F19)</f>
+        <f t="shared" ref="G19:G22" si="8">SUM(D19:F19)</f>
         <v>19.100000000000001</v>
       </c>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="6"/>
-        <v>27.1</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
         <f t="shared" si="7"/>
         <v>27.1</v>
       </c>
+      <c r="F20" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="8"/>
+        <v>27.1</v>
+      </c>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.21</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.09</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40.299999999999997</v>
       </c>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.6</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.6</v>
       </c>
     </row>
@@ -2204,11 +2788,11 @@
         <v>16.596</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" ref="E23:F23" si="8">SUM(E18:E22)</f>
+        <f t="shared" ref="E23:F23" si="9">SUM(E18:E22)</f>
         <v>63.713999999999999</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19.689999999999998</v>
       </c>
       <c r="G23" s="3">
@@ -2229,71 +2813,71 @@
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D27" s="5">
-        <f t="shared" ref="D27:F31" si="9">D18/D$23</f>
+        <f t="shared" ref="D27:F31" si="10">D18/D$23</f>
         <v>0.35550735116895632</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D28" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.64449264883104374</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.13190193677998555</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D29" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.42533823021627903</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D30" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.44275983300373545</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.61401726764855258</v>
       </c>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D31" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E31" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.38598273235144748</v>
       </c>
     </row>
@@ -2303,11 +2887,11 @@
         <v>1</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" ref="E32:F32" si="10">SUM(E27:E31)</f>
+        <f t="shared" ref="E32:F32" si="11">SUM(E27:E31)</f>
         <v>1</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -2436,10 +3020,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F466A6-35F3-4AB2-B6D8-919EDB7D04BD}">
-  <dimension ref="A1:AE56"/>
+  <dimension ref="A1:AW56"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR14" sqref="AR14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2454,14 +3038,16 @@
     <col min="19" max="23" width="11.1640625" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="14.33203125" customWidth="1"/>
     <col min="26" max="31" width="11.1640625" customWidth="1"/>
+    <col min="35" max="35" width="14.33203125" customWidth="1"/>
+    <col min="36" max="41" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S3" t="s">
         <v>66</v>
       </c>
@@ -2470,7 +3056,7 @@
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -2481,33 +3067,43 @@
         <f>1/52</f>
         <v>1.9230769230769232E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK4">
+        <f>1/52</f>
+        <v>1.9230769230769232E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AH6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="124" t="s">
+    <row r="10" spans="1:49" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="123" t="s">
+      <c r="B10" s="129"/>
+      <c r="C10" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
       <c r="I10" s="15" t="s">
         <v>65</v>
       </c>
@@ -2569,10 +3165,39 @@
       <c r="AE10" s="114" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" ht="31" x14ac:dyDescent="0.35">
-      <c r="A11" s="124"/>
-      <c r="B11" s="124"/>
+      <c r="AI10" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ10" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK10" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL10" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM10" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN10" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO10" s="114" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR10">
+        <f>0.5^1</f>
+        <v>0.5</v>
+      </c>
+      <c r="AS10">
+        <f>1.5^6</f>
+        <v>11.390625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" ht="31" x14ac:dyDescent="0.35">
+      <c r="A11" s="129"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="28" t="s">
         <v>43</v>
       </c>
@@ -2662,9 +3287,40 @@
         <f>Calibrate2distribution!M15</f>
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="123" t="s">
+      <c r="AI11" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ11" s="106">
+        <f>1-SUM(AK11:AN11)</f>
+        <v>0.69130000000000003</v>
+      </c>
+      <c r="AK11" s="107">
+        <v>0.25838</v>
+      </c>
+      <c r="AL11" s="107">
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="AM11" s="107">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="AN11" s="107">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AO11" s="55">
+        <f>Calibrate2distribution!W15</f>
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <f>AR10*AL13</f>
+        <v>0.377855</v>
+      </c>
+      <c r="AS11">
+        <f>AS10*AL13</f>
+        <v>8.6080092187500004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="128" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="85" t="s">
@@ -2761,9 +3417,32 @@
         <f>Calibrate2distribution!M14</f>
         <v>0.40300000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" ht="31" x14ac:dyDescent="0.35">
-      <c r="A13" s="123"/>
+      <c r="AI12" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ12" s="107">
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="AK12" s="106">
+        <f>1-SUM(AJ12,AL12:AN12)</f>
+        <v>0.81357999999999997</v>
+      </c>
+      <c r="AL12" s="107">
+        <v>7.8049999999999994E-2</v>
+      </c>
+      <c r="AM12" s="107">
+        <v>7.8049999999999994E-2</v>
+      </c>
+      <c r="AN12" s="107">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO12" s="55">
+        <f>Calibrate2distribution!W14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" ht="31" x14ac:dyDescent="0.35">
+      <c r="A13" s="128"/>
       <c r="B13" s="87" t="s">
         <v>44</v>
       </c>
@@ -2858,9 +3537,49 @@
         <f>Calibrate2distribution!M13</f>
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="123"/>
+      <c r="AI13" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ13" s="108">
+        <v>2.5319999999999999E-2</v>
+      </c>
+      <c r="AK13" s="108">
+        <v>0.13397000000000001</v>
+      </c>
+      <c r="AL13" s="109">
+        <f>1-SUM(AJ13:AK13,AM13:AN13)</f>
+        <v>0.75570999999999999</v>
+      </c>
+      <c r="AM13" s="108">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AN13" s="108">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AO13" s="53">
+        <f>Calibrate2distribution!W13</f>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="130"/>
+      <c r="AR13" s="130">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="130">
+        <v>2</v>
+      </c>
+      <c r="AT13" s="130">
+        <v>3</v>
+      </c>
+      <c r="AU13" s="130">
+        <v>4</v>
+      </c>
+      <c r="AV13" s="130">
+        <v>5</v>
+      </c>
+      <c r="AW13" s="130"/>
+    </row>
+    <row r="14" spans="1:49" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="128"/>
       <c r="B14" s="90" t="s">
         <v>45</v>
       </c>
@@ -2954,8 +3673,49 @@
         <f>Calibrate2distribution!M12</f>
         <v>0.191</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="AI14" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ14" s="110">
+        <v>1.511E-2</v>
+      </c>
+      <c r="AK14" s="110">
+        <v>0.10557</v>
+      </c>
+      <c r="AL14" s="110">
+        <v>0.16334000000000001</v>
+      </c>
+      <c r="AM14" s="111">
+        <f>1-SUM(AJ14:AL14,AN14)</f>
+        <v>0.67515000000000003</v>
+      </c>
+      <c r="AN14" s="110">
+        <v>4.0829999999999998E-2</v>
+      </c>
+      <c r="AO14" s="56">
+        <f>Calibrate2distribution!W12</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="130">
+        <v>4</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="49"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -3035,8 +3795,49 @@
         <f>Calibrate2distribution!M11</f>
         <v>5.8999999999999997E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AI15" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ15" s="110">
+        <v>0.03</v>
+      </c>
+      <c r="AK15" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="AL15" s="110">
+        <v>0.16</v>
+      </c>
+      <c r="AM15" s="110">
+        <v>0.13397000000000001</v>
+      </c>
+      <c r="AN15" s="111">
+        <f>1-SUM(AJ15:AM15)</f>
+        <v>0.63602999999999998</v>
+      </c>
+      <c r="AO15" s="56">
+        <f>Calibrate2distribution!W11</f>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="130">
+        <v>5</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A16" s="60"/>
       <c r="B16" s="60"/>
       <c r="C16" s="49"/>
@@ -3063,8 +3864,16 @@
       <c r="AC16" s="95"/>
       <c r="AD16" s="95"/>
       <c r="AE16" s="95"/>
-    </row>
-    <row r="17" spans="1:31" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="AI16" s="116"/>
+      <c r="AJ16" s="116"/>
+      <c r="AK16" s="116"/>
+      <c r="AL16" s="116"/>
+      <c r="AM16" s="116"/>
+      <c r="AN16" s="116"/>
+      <c r="AO16" s="116"/>
+      <c r="AQ16" s="130"/>
+    </row>
+    <row r="17" spans="1:42" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A17" s="67" t="s">
         <v>64</v>
       </c>
@@ -3146,8 +3955,32 @@
       <c r="AE17" s="67" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AI17" s="117"/>
+      <c r="AJ17" s="117" t="str">
+        <f>AJ10</f>
+        <v>1 - completely controlled</v>
+      </c>
+      <c r="AK17" s="117" t="str">
+        <f t="shared" ref="AK17:AN17" si="14">AK10</f>
+        <v>2 - well-controlled</v>
+      </c>
+      <c r="AL17" s="117" t="str">
+        <f t="shared" si="14"/>
+        <v>3 - somewhat controlled</v>
+      </c>
+      <c r="AM17" s="117" t="str">
+        <f t="shared" si="14"/>
+        <v>4 - Poorly controlled</v>
+      </c>
+      <c r="AN17" s="117" t="str">
+        <f t="shared" si="14"/>
+        <v>5 - Not controlled at all</v>
+      </c>
+      <c r="AO17" s="67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A18" s="67">
         <v>0</v>
       </c>
@@ -3225,8 +4058,38 @@
         <f>SUM(Z18:AD18)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AH18">
+        <v>-1</v>
+      </c>
+      <c r="AI18" s="117" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ18" s="37">
+        <f>Calibrate2distribution!L15</f>
+        <v>9.0577181208053692E-2</v>
+      </c>
+      <c r="AK18" s="94">
+        <f>Calibrate2distribution!L14</f>
+        <v>0.39142281879194629</v>
+      </c>
+      <c r="AL18" s="94">
+        <f>Calibrate2distribution!L13</f>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AM18" s="94">
+        <f>Calibrate2distribution!L12</f>
+        <v>0.19416666666666668</v>
+      </c>
+      <c r="AN18" s="37">
+        <f>Calibrate2distribution!L11</f>
+        <v>3.8833333333333331E-2</v>
+      </c>
+      <c r="AO18" s="61">
+        <f>SUM(AJ18:AN18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A19" s="67">
         <v>1</v>
       </c>
@@ -3238,15 +4101,15 @@
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="D19" s="61">
-        <f t="shared" ref="D19:E19" si="14">$C18*D$12 + $D18*D$13 + $E18*D$14</f>
+        <f t="shared" ref="D19:E19" si="15">$C18*D$12 + $D18*D$13 + $E18*D$14</f>
         <v>0.73</v>
       </c>
       <c r="E19" s="61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.18</v>
       </c>
       <c r="F19" s="61">
-        <f t="shared" ref="F19:F21" si="15">SUM(C19:E19)</f>
+        <f t="shared" ref="F19:F21" si="16">SUM(C19:E19)</f>
         <v>1</v>
       </c>
       <c r="G19" s="71"/>
@@ -3261,23 +4124,23 @@
         <v>0.05</v>
       </c>
       <c r="K19" s="36">
-        <f t="shared" ref="K19:N19" si="16">$J18*K$11 + $K18*K$12 + $L18*K$13 + $M18*K$14 + $N18*K$15</f>
+        <f t="shared" ref="K19:N19" si="17">$J18*K$11 + $K18*K$12 + $L18*K$13 + $M18*K$14 + $N18*K$15</f>
         <v>0.25</v>
       </c>
       <c r="L19" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.51</v>
       </c>
       <c r="M19" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.15</v>
       </c>
       <c r="N19" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.04</v>
       </c>
       <c r="O19" s="61">
-        <f t="shared" ref="O19:O20" si="17">SUM(J19:N19)</f>
+        <f t="shared" ref="O19:O20" si="18">SUM(J19:N19)</f>
         <v>1</v>
       </c>
       <c r="P19" s="62"/>
@@ -3298,27 +4161,55 @@
         <v>2.5320565519103666E-2</v>
       </c>
       <c r="AA19" s="36">
-        <f t="shared" ref="AA19:AD19" si="18">$Z18*AA$11 + $AA18*AA$12 + $AB18*AA$13 + $AC18*AA$14 + $AD18*AA$15</f>
+        <f t="shared" ref="AA19:AD19" si="19">$Z18*AA$11 + $AA18*AA$12 + $AB18*AA$13 + $AC18*AA$14 + $AD18*AA$15</f>
         <v>0.13397459621556129</v>
       </c>
       <c r="AB19" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.74245518110789499</v>
       </c>
       <c r="AC19" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.8045554270711248E-2</v>
       </c>
       <c r="AD19" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.0204102886728803E-2</v>
       </c>
       <c r="AE19" s="61">
-        <f t="shared" ref="AE19:AE22" si="19">SUM(Z19:AD19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+        <f t="shared" ref="AE19:AE22" si="20">SUM(Z19:AD19)</f>
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="117" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ19" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="36">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="36">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="61">
+        <f t="shared" ref="AO19:AO22" si="21">SUM(AJ19:AN19)</f>
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A20" s="67">
         <v>2</v>
       </c>
@@ -3326,19 +4217,19 @@
         <v>56</v>
       </c>
       <c r="C20" s="79">
-        <f t="shared" ref="C20:C48" si="20">$C19*C$12 + $D19*C$13 + $E19*C$14</f>
+        <f t="shared" ref="C20:C48" si="22">$C19*C$12 + $D19*C$13 + $E19*C$14</f>
         <v>0.13878000000000007</v>
       </c>
       <c r="D20" s="79">
-        <f t="shared" ref="D20:D48" si="21">$C19*D$12 + $D19*D$13 + $E19*D$14</f>
+        <f t="shared" ref="D20:D48" si="23">$C19*D$12 + $D19*D$13 + $E19*D$14</f>
         <v>0.57339999999999991</v>
       </c>
       <c r="E20" s="79">
-        <f t="shared" ref="E20:E48" si="22">$C19*E$12 + $D19*E$13 + $E19*E$14</f>
+        <f t="shared" ref="E20:E48" si="24">$C19*E$12 + $D19*E$13 + $E19*E$14</f>
         <v>0.28781999999999996</v>
       </c>
       <c r="F20" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="G20" s="71"/>
@@ -3353,23 +4244,23 @@
         <v>6.5700000000000008E-2</v>
       </c>
       <c r="K20" s="36">
-        <f t="shared" ref="K20:K48" si="23">$J19*K$11 + $K19*K$12 + $L19*K$13 + $M19*K$14 + $N19*K$15</f>
+        <f t="shared" ref="K20:K48" si="25">$J19*K$11 + $K19*K$12 + $L19*K$13 + $M19*K$14 + $N19*K$15</f>
         <v>0.33950000000000002</v>
       </c>
       <c r="L20" s="36">
-        <f t="shared" ref="L20:L48" si="24">$J19*L$11 + $K19*L$12 + $L19*L$13 + $M19*L$14 + $N19*L$15</f>
+        <f t="shared" ref="L20:L48" si="26">$J19*L$11 + $K19*L$12 + $L19*L$13 + $M19*L$14 + $N19*L$15</f>
         <v>0.35509999999999997</v>
       </c>
       <c r="M20" s="36">
-        <f t="shared" ref="M20:M48" si="25">$J19*M$11 + $K19*M$12 + $L19*M$13 + $M19*M$14 + $N19*M$15</f>
+        <f t="shared" ref="M20:M48" si="27">$J19*M$11 + $K19*M$12 + $L19*M$13 + $M19*M$14 + $N19*M$15</f>
         <v>0.185</v>
       </c>
       <c r="N20" s="36">
-        <f t="shared" ref="N20:N48" si="26">$J19*N$11 + $K19*N$12 + $L19*N$13 + $M19*N$14 + $N19*N$15</f>
+        <f t="shared" ref="N20:N48" si="28">$J19*N$11 + $K19*N$12 + $L19*N$13 + $M19*N$14 + $N19*N$15</f>
         <v>5.4699999999999999E-2</v>
       </c>
       <c r="O20" s="61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="P20" s="62"/>
@@ -3386,31 +4277,64 @@
         <v>56</v>
       </c>
       <c r="Z20" s="36">
-        <f t="shared" ref="Z20:Z48" si="27">$Z19*Z$11 + $AA19*Z$12 + $AB19*Z$13 + $AC19*Z$14 + $AD19*Z$15</f>
+        <f t="shared" ref="Z20:Z48" si="29">$Z19*Z$11 + $AA19*Z$12 + $AB19*Z$13 + $AC19*Z$14 + $AD19*Z$15</f>
         <v>4.1045715481110898E-2</v>
       </c>
       <c r="AA20" s="36">
-        <f t="shared" ref="AA20:AA48" si="28">$Z19*AA$11 + $AA19*AA$12 + $AB19*AA$13 + $AC19*AA$14 + $AD19*AA$15</f>
+        <f t="shared" ref="AA20:AA48" si="30">$Z19*AA$11 + $AA19*AA$12 + $AB19*AA$13 + $AC19*AA$14 + $AD19*AA$15</f>
         <v>0.22308706025789879</v>
       </c>
       <c r="AB20" s="36">
-        <f t="shared" ref="AB20:AB48" si="29">$Z19*AB$11 + $AA19*AB$12 + $AB19*AB$13 + $AC19*AB$14 + $AD19*AB$15</f>
+        <f t="shared" ref="AB20:AB48" si="31">$Z19*AB$11 + $AA19*AB$12 + $AB19*AB$13 + $AC19*AB$14 + $AD19*AB$15</f>
         <v>0.57779174390186105</v>
       </c>
       <c r="AC20" s="36">
-        <f t="shared" ref="AC20:AC48" si="30">$Z19*AC$11 + $AA19*AC$12 + $AB19*AC$13 + $AC19*AC$14 + $AD19*AC$15</f>
+        <f t="shared" ref="AC20:AC48" si="32">$Z19*AC$11 + $AA19*AC$12 + $AB19*AC$13 + $AC19*AC$14 + $AD19*AC$15</f>
         <v>0.12444103637880716</v>
       </c>
       <c r="AD20" s="36">
-        <f t="shared" ref="AD20:AD48" si="31">$Z19*AD$11 + $AA19*AD$12 + $AB19*AD$13 + $AC19*AD$14 + $AD19*AD$15</f>
+        <f t="shared" ref="AD20:AD48" si="33">$Z19*AD$11 + $AA19*AD$12 + $AB19*AD$13 + $AC19*AD$14 + $AD19*AD$15</f>
         <v>3.3634443980322094E-2</v>
       </c>
       <c r="AE20" s="61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ20" s="36">
+        <f>$AJ19*AJ$11 + $AK19*AJ$12 + $AL19*AJ$13 + $AM19*AJ$14*(AR$14^$AP19) + $AN19*AJ$15*(AR$15^$AP19)</f>
+        <v>1.511E-2</v>
+      </c>
+      <c r="AK20" s="36">
+        <f t="shared" ref="AK20:AN35" si="34">$AJ19*AK$11 + $AK19*AK$12 + $AL19*AK$13 + $AM19*AK$14*(AS$14^$AP19) + $AN19*AK$15*(AS$15^$AP19)</f>
+        <v>0.10557</v>
+      </c>
+      <c r="AL20" s="36">
+        <f t="shared" si="34"/>
+        <v>0.16334000000000001</v>
+      </c>
+      <c r="AM20" s="36">
+        <f t="shared" ref="AM20:AM48" si="35">1-SUM(AJ20:AL20,AN20)</f>
+        <v>0.67515000000000003</v>
+      </c>
+      <c r="AN20" s="36">
+        <f t="shared" si="34"/>
+        <v>4.0829999999999998E-2</v>
+      </c>
+      <c r="AO20" s="61">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A21" s="67">
         <v>3</v>
       </c>
@@ -3418,19 +4342,19 @@
         <v>61</v>
       </c>
       <c r="C21" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.16460316000000008</v>
       </c>
       <c r="D21" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.48236679999999987</v>
       </c>
       <c r="E21" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.35303003999999993</v>
       </c>
       <c r="F21" s="61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="G21" s="68"/>
@@ -3441,27 +4365,27 @@
         <v>62</v>
       </c>
       <c r="J21" s="36">
-        <f t="shared" ref="J21:J48" si="32">$J20*J$11 + $K20*J$12 + $L20*J$13 + $M20*J$14 + $N20*J$15</f>
+        <f t="shared" ref="J21:J48" si="36">$J20*J$11 + $K20*J$12 + $L20*J$13 + $M20*J$14 + $N20*J$15</f>
         <v>7.0829000000000003E-2</v>
       </c>
       <c r="K21" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.37195999999999996</v>
       </c>
       <c r="L21" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.30448599999999998</v>
       </c>
       <c r="M21" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.1933</v>
       </c>
       <c r="N21" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.9424999999999992E-2</v>
       </c>
       <c r="O21" s="61">
-        <f t="shared" ref="O21:O22" si="33">SUM(J21:N21)</f>
+        <f t="shared" ref="O21:O22" si="37">SUM(J21:N21)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="P21" s="62"/>
@@ -3478,31 +4402,64 @@
         <v>61</v>
       </c>
       <c r="Z21" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.0823863410638742E-2</v>
       </c>
       <c r="AA21" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.28237837195170323</v>
       </c>
       <c r="AB21" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.47226708448925703</v>
       </c>
       <c r="AC21" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.15206552644138185</v>
       </c>
       <c r="AD21" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.2465153707019157E-2</v>
       </c>
       <c r="AE21" s="61">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>2</v>
+      </c>
+      <c r="AI21" s="117" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ21" s="36">
+        <f t="shared" ref="AJ21:AJ48" si="38">$AJ20*AJ$11 + $AK20*AJ$12 + $AL20*AJ$13 + $AM20*AJ$14*(AR$14^$AP20) + $AN20*AJ$15*(AR$15^$AP20)</f>
+        <v>2.8680760700000002E-2</v>
+      </c>
+      <c r="AK21" s="36">
+        <f t="shared" ref="AK21:AK48" si="39">$AJ20*AK$11 + $AK20*AK$12 + $AL20*AK$13 + $AM20*AK$14*(AS$14^$AP20) + $AN20*AK$15*(AS$15^$AP20)</f>
+        <v>0.18458520769999998</v>
+      </c>
+      <c r="AL21" s="36">
+        <f t="shared" ref="AL21:AN48" si="40">$AJ20*AL$11 + $AK20*AL$12 + $AL20*AL$13 + $AM20*AL$14*(AT$14^$AP20) + $AN20*AL$15*(AT$15^$AP20)</f>
+        <v>0.24887179610000001</v>
+      </c>
+      <c r="AM21" s="36">
+        <f t="shared" si="35"/>
+        <v>0.48130347610000002</v>
+      </c>
+      <c r="AN21" s="36">
+        <f t="shared" si="34"/>
+        <v>5.6558759399999999E-2</v>
+      </c>
+      <c r="AO21" s="61">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A22" s="67">
         <v>4</v>
       </c>
@@ -3510,15 +4467,15 @@
         <v>57</v>
       </c>
       <c r="C22" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.17778548952000006</v>
       </c>
       <c r="D22" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.42929626959999989</v>
       </c>
       <c r="E22" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.39291824087999994</v>
       </c>
       <c r="F22" s="61">
@@ -3533,27 +4490,27 @@
         <v>63</v>
       </c>
       <c r="J22" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.2568809999999997E-2</v>
       </c>
       <c r="K22" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.38396059999999999</v>
       </c>
       <c r="L22" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.28746956000000001</v>
       </c>
       <c r="M22" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19525159999999997</v>
       </c>
       <c r="N22" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0749429999999993E-2</v>
       </c>
       <c r="O22" s="61">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="R22" s="69"/>
@@ -3569,49 +4526,82 @@
         <v>57</v>
       </c>
       <c r="Z22" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.6911679339837117E-2</v>
       </c>
       <c r="AA22" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.3218464891129732</v>
       </c>
       <c r="AB22" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.40449004013737044</v>
       </c>
       <c r="AC22" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.16853827714745723</v>
       </c>
       <c r="AD22" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4.8213514262362069E-2</v>
       </c>
       <c r="AE22" s="61">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>3</v>
+      </c>
+      <c r="AI22" s="117" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ22" s="36">
+        <f t="shared" si="38"/>
+        <v>3.9771399513996997E-2</v>
+      </c>
+      <c r="AK22" s="36">
+        <f t="shared" si="39"/>
+        <v>0.24400028110162597</v>
+      </c>
+      <c r="AL22" s="36">
+        <f t="shared" si="40"/>
+        <v>0.29087348864281404</v>
+      </c>
+      <c r="AM22" s="36">
+        <f t="shared" si="35"/>
+        <v>0.36498809680911803</v>
+      </c>
+      <c r="AN22" s="36">
+        <f t="shared" si="34"/>
+        <v>6.0366733932444995E-2</v>
+      </c>
+      <c r="AO22" s="61">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A23" s="67">
         <v>5</v>
       </c>
       <c r="B23" s="68"/>
       <c r="C23" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18411889960944006</v>
       </c>
       <c r="D23" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.39824489113119993</v>
       </c>
       <c r="E23" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.4176362092593599</v>
       </c>
       <c r="F23" s="61">
-        <f t="shared" ref="F23:F28" si="34">SUM(C23:E23)</f>
+        <f t="shared" ref="F23:F28" si="41">SUM(C23:E23)</f>
         <v>1</v>
       </c>
       <c r="G23" s="68"/>
@@ -3619,27 +4609,27 @@
         <v>5</v>
       </c>
       <c r="J23" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3181815299999994E-2</v>
       </c>
       <c r="K23" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.38850632399999996</v>
       </c>
       <c r="L23" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.28159484359999998</v>
       </c>
       <c r="M23" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19567844600000001</v>
       </c>
       <c r="N23" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.1038571099999987E-2</v>
       </c>
       <c r="O23" s="61">
-        <f t="shared" ref="O23:O28" si="35">SUM(J23:N23)</f>
+        <f t="shared" ref="O23:O28" si="42">SUM(J23:N23)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="S23" s="36"/>
@@ -3654,75 +4644,108 @@
         <v>68</v>
       </c>
       <c r="Z23" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.0706771738338321E-2</v>
       </c>
       <c r="AA23" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.34813514946144292</v>
       </c>
       <c r="AB23" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.36086387336765358</v>
       </c>
       <c r="AC23" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.17837457388037928</v>
       </c>
       <c r="AD23" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.1919631552186069E-2</v>
       </c>
       <c r="AE23" s="61">
-        <f t="shared" ref="AE23:AE48" si="36">SUM(Z23:AD23)</f>
+        <f t="shared" ref="AE23:AE48" si="43">SUM(Z23:AD23)</f>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AH23">
+        <v>4</v>
+      </c>
+      <c r="AI23" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ23" s="36">
+        <f t="shared" si="38"/>
+        <v>4.8362944494714469E-2</v>
+      </c>
+      <c r="AK23" s="36">
+        <f t="shared" si="39"/>
+        <v>0.28870466691600155</v>
+      </c>
+      <c r="AL23" s="36">
+        <f t="shared" si="40"/>
+        <v>0.30914307103992983</v>
+      </c>
+      <c r="AM23" s="36">
+        <f t="shared" si="35"/>
+        <v>0.29478938183989256</v>
+      </c>
+      <c r="AN23" s="36">
+        <f t="shared" si="34"/>
+        <v>5.8999935709461611E-2</v>
+      </c>
+      <c r="AO23" s="61">
+        <f t="shared" ref="AO23:AO48" si="44">SUM(AJ23:AN23)</f>
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A24" s="67">
         <v>6</v>
       </c>
       <c r="C24" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18682853898588775</v>
       </c>
       <c r="D24" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.37999406865528629</v>
       </c>
       <c r="E24" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.4331773923588258</v>
       </c>
       <c r="F24" s="61">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="H24" s="78">
         <v>6</v>
       </c>
       <c r="J24" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3406567625000002E-2</v>
       </c>
       <c r="K24" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39027712965999994</v>
       </c>
       <c r="L24" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27951158617599992</v>
       </c>
       <c r="M24" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19574850261999999</v>
       </c>
       <c r="N24" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.1056213918999992E-2</v>
       </c>
       <c r="O24" s="61">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="S24" s="36"/>
@@ -3734,75 +4757,105 @@
         <v>6</v>
       </c>
       <c r="Z24" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.3075764233126774E-2</v>
       </c>
       <c r="AA24" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.36565859051240812</v>
       </c>
       <c r="AB24" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.33272439278604843</v>
       </c>
       <c r="AC24" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.18425494854944977</v>
       </c>
       <c r="AD24" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.4286303918967105E-2</v>
       </c>
       <c r="AE24" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AH24">
+        <v>5</v>
+      </c>
+      <c r="AJ24" s="36">
+        <f t="shared" si="38"/>
+        <v>5.4795073885124931E-2</v>
+      </c>
+      <c r="AK24" s="36">
+        <f t="shared" si="39"/>
+        <v>0.3222771702045002</v>
+      </c>
+      <c r="AL24" s="36">
+        <f t="shared" si="40"/>
+        <v>0.31497134656622738</v>
+      </c>
+      <c r="AM24" s="36">
+        <f t="shared" si="35"/>
+        <v>0.25216867154067268</v>
+      </c>
+      <c r="AN24" s="36">
+        <f t="shared" si="34"/>
+        <v>5.5787737803474784E-2</v>
+      </c>
+      <c r="AO24" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A25" s="67">
         <v>7</v>
       </c>
       <c r="C25" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18768984926712817</v>
       </c>
       <c r="D25" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.369206153532325</v>
       </c>
       <c r="E25" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.44310399720054666</v>
       </c>
       <c r="F25" s="61">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="H25" s="78">
         <v>7</v>
       </c>
       <c r="J25" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3492467042969994E-2</v>
       </c>
       <c r="K25" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39098795488099991</v>
       </c>
       <c r="L25" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27875141104575996</v>
       </c>
       <c r="M25" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19574460525819995</v>
       </c>
       <c r="N25" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.1023561772069988E-2</v>
       </c>
       <c r="O25" s="61">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="S25" s="36"/>
@@ -3814,75 +4867,105 @@
         <v>7</v>
       </c>
       <c r="Z25" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.4556656462754686E-2</v>
       </c>
       <c r="AA25" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.37734981357674108</v>
       </c>
       <c r="AB25" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.31453727475091153</v>
       </c>
       <c r="AC25" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.18777354411630034</v>
       </c>
       <c r="AD25" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.5782711093292442E-2</v>
       </c>
       <c r="AE25" s="61">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>6</v>
+      </c>
+      <c r="AJ25" s="36">
+        <f t="shared" si="38"/>
+        <v>5.9498867782505495E-2</v>
+      </c>
+      <c r="AK25" s="36">
+        <f t="shared" si="39"/>
+        <v>0.34740587879158114</v>
+      </c>
+      <c r="AL25" s="36">
+        <f t="shared" si="40"/>
+        <v>0.31468340957680574</v>
+      </c>
+      <c r="AM25" s="36">
+        <f t="shared" si="35"/>
+        <v>0.22613278084378663</v>
+      </c>
+      <c r="AN25" s="36">
+        <f t="shared" si="34"/>
+        <v>5.2279063005321022E-2</v>
+      </c>
+      <c r="AO25" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A26" s="67">
         <v>8</v>
       </c>
       <c r="C26" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18766444038280608</v>
       </c>
       <c r="D26" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.36278508307542268</v>
       </c>
       <c r="E26" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.4495504765417711</v>
       </c>
       <c r="F26" s="61">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="H26" s="78">
         <v>8</v>
       </c>
       <c r="J26" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3526698806152896E-2</v>
       </c>
       <c r="K26" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39128197364604989</v>
       </c>
       <c r="L26" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27846530823811355</v>
       </c>
       <c r="M26" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19573181473487794</v>
       </c>
       <c r="N26" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0994204574805484E-2</v>
       </c>
       <c r="O26" s="61">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="S26" s="36"/>
@@ -3894,75 +4977,105 @@
         <v>8</v>
       </c>
       <c r="Z26" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.5483816530769665E-2</v>
       </c>
       <c r="AA26" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.38515798883852398</v>
       </c>
       <c r="AB26" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.30275930760266978</v>
       </c>
       <c r="AC26" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.1898800881248483</v>
       </c>
       <c r="AD26" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.6718798903188476E-2</v>
       </c>
       <c r="AE26" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AH26">
+        <v>7</v>
+      </c>
+      <c r="AJ26" s="36">
+        <f t="shared" si="38"/>
+        <v>6.2880906288242847E-2</v>
+      </c>
+      <c r="AK26" s="36">
+        <f t="shared" si="39"/>
+        <v>0.36613792889979441</v>
+      </c>
+      <c r="AL26" s="36">
+        <f t="shared" si="40"/>
+        <v>0.31173211812709928</v>
+      </c>
+      <c r="AM26" s="36">
+        <f t="shared" si="35"/>
+        <v>0.21012921565877984</v>
+      </c>
+      <c r="AN26" s="36">
+        <f t="shared" si="34"/>
+        <v>4.9119831026083645E-2</v>
+      </c>
+      <c r="AO26" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A27" s="67">
         <v>9</v>
       </c>
       <c r="C27" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18726083094091137</v>
       </c>
       <c r="D27" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35893091626822199</v>
       </c>
       <c r="E27" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.45380825279086656</v>
       </c>
       <c r="F27" s="61">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="H27" s="78">
         <v>9</v>
       </c>
       <c r="J27" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3540892148205958E-2</v>
       </c>
       <c r="K27" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39140705809502446</v>
       </c>
       <c r="L27" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27835403375281781</v>
       </c>
       <c r="M27" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19572238611323595</v>
       </c>
       <c r="N27" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0975629890715602E-2</v>
       </c>
       <c r="O27" s="61">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="S27" s="36"/>
@@ -3974,76 +5087,106 @@
         <v>9</v>
       </c>
       <c r="Z27" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.6065286588067776E-2</v>
       </c>
       <c r="AA27" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.39037890124645069</v>
       </c>
       <c r="AB27" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.29511705928275084</v>
       </c>
       <c r="AC27" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19114136237268795</v>
       </c>
       <c r="AD27" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.7297390510043011E-2</v>
       </c>
       <c r="AE27" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AH27">
+        <v>8</v>
+      </c>
+      <c r="AJ27" s="36">
+        <f t="shared" si="38"/>
+        <v>6.5281887487169912E-2</v>
+      </c>
+      <c r="AK27" s="36">
+        <f t="shared" si="39"/>
+        <v>0.38004055116467916</v>
+      </c>
+      <c r="AL27" s="36">
+        <f t="shared" si="40"/>
+        <v>0.30792996793755589</v>
+      </c>
+      <c r="AM27" s="36">
+        <f t="shared" si="35"/>
+        <v>0.20023101727245685</v>
+      </c>
+      <c r="AN27" s="36">
+        <f t="shared" si="34"/>
+        <v>4.6516576138138151E-2</v>
+      </c>
+      <c r="AO27" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A28" s="67">
         <v>10</v>
       </c>
       <c r="B28" s="64"/>
       <c r="C28" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18673817491543135</v>
       </c>
       <c r="D28" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35659419961738781</v>
       </c>
       <c r="E28" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.4566676254671807</v>
       </c>
       <c r="F28" s="61">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="H28" s="77">
         <v>10</v>
       </c>
       <c r="J28" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3546987617721271E-2</v>
       </c>
       <c r="K28" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39146161522194556</v>
       </c>
       <c r="L28" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27830928384225073</v>
       </c>
       <c r="M28" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571684644142756</v>
       </c>
       <c r="N28" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0965266876654683E-2</v>
       </c>
       <c r="O28" s="61">
-        <f t="shared" si="35"/>
+        <f t="shared" si="42"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="S28" s="36"/>
@@ -4055,76 +5198,106 @@
         <v>10</v>
       </c>
       <c r="Z28" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.6430653909755596E-2</v>
       </c>
       <c r="AA28" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.39387438610157105</v>
       </c>
       <c r="AB28" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.29014875765475007</v>
       </c>
       <c r="AC28" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19189616341273763</v>
       </c>
       <c r="AD28" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.7650038921185934E-2</v>
       </c>
       <c r="AE28" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000004</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AH28">
+        <v>9</v>
+      </c>
+      <c r="AJ28" s="36">
+        <f t="shared" si="38"/>
+        <v>6.6969770318680122E-2</v>
+      </c>
+      <c r="AK28" s="36">
+        <f t="shared" si="39"/>
+        <v>0.39031335504906783</v>
+      </c>
+      <c r="AL28" s="36">
+        <f t="shared" si="40"/>
+        <v>0.30416924502305392</v>
+      </c>
+      <c r="AM28" s="36">
+        <f t="shared" si="35"/>
+        <v>0.19407126131547547</v>
+      </c>
+      <c r="AN28" s="36">
+        <f t="shared" si="34"/>
+        <v>4.447636829372266E-2</v>
+      </c>
+      <c r="AO28" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A29" s="67">
         <v>11</v>
       </c>
       <c r="B29" s="36"/>
       <c r="C29" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18622061426598471</v>
       </c>
       <c r="D29" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35516081026535851</v>
       </c>
       <c r="E29" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.45861857546865659</v>
       </c>
       <c r="F29" s="61">
-        <f t="shared" ref="F29:F36" si="37">SUM(C29:E29)</f>
+        <f t="shared" ref="F29:F36" si="45">SUM(C29:E29)</f>
         <v>0.99999999999999978</v>
       </c>
       <c r="H29" s="77">
         <v>11</v>
       </c>
       <c r="J29" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3549682904549649E-2</v>
       </c>
       <c r="K29" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39148591561048124</v>
       </c>
       <c r="L29" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27829069707531773</v>
       </c>
       <c r="M29" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571387107183594</v>
       </c>
       <c r="N29" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0959833337815322E-2</v>
       </c>
       <c r="O29" s="61">
-        <f t="shared" ref="O29:O47" si="38">SUM(J29:N29)</f>
+        <f t="shared" ref="O29:O47" si="46">SUM(J29:N29)</f>
         <v>0.99999999999999978</v>
       </c>
       <c r="S29" s="36"/>
@@ -4136,75 +5309,105 @@
         <v>11</v>
       </c>
       <c r="Z29" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.6660729207345282E-2</v>
       </c>
       <c r="AA29" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.39621801098737669</v>
       </c>
       <c r="AB29" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28691260984024686</v>
       </c>
       <c r="AC29" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19234730969466723</v>
       </c>
       <c r="AD29" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.7861340270364298E-2</v>
       </c>
       <c r="AE29" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AH29">
+        <v>10</v>
+      </c>
+      <c r="AJ29" s="36">
+        <f t="shared" si="38"/>
+        <v>6.8147209462418201E-2</v>
+      </c>
+      <c r="AK29" s="36">
+        <f t="shared" si="39"/>
+        <v>0.3978715002003233</v>
+      </c>
+      <c r="AL29" s="36">
+        <f t="shared" si="40"/>
+        <v>0.30083919085268618</v>
+      </c>
+      <c r="AM29" s="36">
+        <f t="shared" si="35"/>
+        <v>0.19021485059765786</v>
+      </c>
+      <c r="AN29" s="36">
+        <f t="shared" si="34"/>
+        <v>4.2927248886914474E-2</v>
+      </c>
+      <c r="AO29" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A30" s="67">
         <v>12</v>
       </c>
       <c r="C30" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18576093211596251</v>
       </c>
       <c r="D30" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35426972301517412</v>
       </c>
       <c r="E30" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.45996934486886315</v>
       </c>
       <c r="F30" s="61">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="H30" s="77">
         <v>12</v>
       </c>
       <c r="J30" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3550902244581329E-2</v>
       </c>
       <c r="K30" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39149692429173794</v>
       </c>
       <c r="L30" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27828274665121633</v>
       </c>
       <c r="M30" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571234410056718</v>
       </c>
       <c r="N30" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0957082711897134E-2</v>
       </c>
       <c r="O30" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="S30" s="36"/>
@@ -4216,75 +5419,102 @@
         <v>12</v>
       </c>
       <c r="Z30" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.6805966268364936E-2</v>
       </c>
       <c r="AA30" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.39779178468587462</v>
       </c>
       <c r="AB30" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28480064950305584</v>
       </c>
       <c r="AC30" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19261637348363214</v>
       </c>
       <c r="AD30" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.798522605907281E-2</v>
       </c>
       <c r="AE30" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ30" s="36">
+        <f t="shared" si="38"/>
+        <v>6.8963484457969945E-2</v>
+      </c>
+      <c r="AK30" s="36">
+        <f t="shared" si="39"/>
+        <v>0.40340966924548438</v>
+      </c>
+      <c r="AL30" s="36">
+        <f t="shared" si="40"/>
+        <v>0.29806459637203486</v>
+      </c>
+      <c r="AM30" s="36">
+        <f t="shared" si="35"/>
+        <v>0.1877863724728851</v>
+      </c>
+      <c r="AN30" s="36">
+        <f t="shared" si="34"/>
+        <v>4.1775877451625747E-2</v>
+      </c>
+      <c r="AO30" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A31" s="67">
         <v>13</v>
       </c>
       <c r="C31" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18537557636863541</v>
       </c>
       <c r="D31" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.3537074897360622</v>
       </c>
       <c r="E31" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46091693389530219</v>
       </c>
       <c r="F31" s="61">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="H31" s="77">
         <v>13</v>
       </c>
       <c r="J31" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551463339137424E-2</v>
       </c>
       <c r="K31" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150197793236885</v>
       </c>
       <c r="L31" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827925845625451</v>
       </c>
       <c r="M31" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571158063086772</v>
       </c>
       <c r="N31" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0955719641371392E-2</v>
       </c>
       <c r="O31" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="S31" s="36"/>
@@ -4296,75 +5526,102 @@
         <v>13</v>
       </c>
       <c r="Z31" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.6897905912892602E-2</v>
       </c>
       <c r="AA31" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.39885036025923487</v>
       </c>
       <c r="AB31" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28341966355419851</v>
       </c>
       <c r="AC31" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.1927763009809291</v>
       </c>
       <c r="AD31" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8055769292745238E-2</v>
       </c>
       <c r="AE31" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ31" s="36">
+        <f t="shared" si="38"/>
+        <v>6.9526513622844274E-2</v>
+      </c>
+      <c r="AK31" s="36">
+        <f t="shared" si="39"/>
+        <v>0.40745218023498048</v>
+      </c>
+      <c r="AL31" s="36">
+        <f t="shared" si="40"/>
+        <v>0.29583984270737751</v>
+      </c>
+      <c r="AM31" s="36">
+        <f t="shared" si="35"/>
+        <v>0.18624852676599046</v>
+      </c>
+      <c r="AN31" s="36">
+        <f t="shared" si="34"/>
+        <v>4.0932936668807277E-2</v>
+      </c>
+      <c r="AO31" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A32" s="67">
         <v>14</v>
       </c>
       <c r="C32" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18506361552231851</v>
       </c>
       <c r="D32" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35334702842375543</v>
       </c>
       <c r="E32" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46158935605392593</v>
       </c>
       <c r="F32" s="61">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="H32" s="77">
         <v>14</v>
       </c>
       <c r="J32" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.355172469681881E-2</v>
       </c>
       <c r="K32" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150432132230994</v>
       </c>
       <c r="L32" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827769576910516</v>
       </c>
       <c r="M32" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571120498163161</v>
       </c>
       <c r="N32" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.095505323013433E-2</v>
       </c>
       <c r="O32" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="S32" s="36"/>
@@ -4376,75 +5633,102 @@
         <v>14</v>
       </c>
       <c r="Z32" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.6956293169574119E-2</v>
       </c>
       <c r="AA32" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.39956366717928338</v>
       </c>
       <c r="AB32" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28251486201699755</v>
       </c>
       <c r="AC32" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19287089058846671</v>
       </c>
       <c r="AD32" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8094287045678608E-2</v>
       </c>
       <c r="AE32" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000004</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ32" s="36">
+        <f t="shared" si="38"/>
+        <v>6.9913236227871087E-2</v>
+      </c>
+      <c r="AK32" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41039244355039117</v>
+      </c>
+      <c r="AL32" s="36">
+        <f t="shared" si="40"/>
+        <v>0.29410228575362896</v>
+      </c>
+      <c r="AM32" s="36">
+        <f t="shared" si="35"/>
+        <v>0.1852694933281378</v>
+      </c>
+      <c r="AN32" s="36">
+        <f t="shared" si="34"/>
+        <v>4.0322541139970976E-2</v>
+      </c>
+      <c r="AO32" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A33" s="67">
         <v>15</v>
       </c>
       <c r="C33" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18481675211253931</v>
       </c>
       <c r="D33" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35311203398559232</v>
       </c>
       <c r="E33" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46207121390186823</v>
       </c>
       <c r="F33" s="61">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="H33" s="77">
         <v>15</v>
       </c>
       <c r="J33" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551847467523995E-2</v>
       </c>
       <c r="K33" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150541614673307</v>
       </c>
       <c r="L33" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827698407745416</v>
       </c>
       <c r="M33" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571102204892313</v>
       </c>
       <c r="N33" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0954730259365542E-2</v>
       </c>
       <c r="O33" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="S33" s="36"/>
@@ -4456,75 +5740,102 @@
         <v>15</v>
       </c>
       <c r="Z33" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.6993507913433684E-2</v>
       </c>
       <c r="AA33" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.40004522987059521</v>
       </c>
       <c r="AB33" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28192084692450858</v>
       </c>
       <c r="AC33" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19292644524533084</v>
       </c>
       <c r="AD33" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.811397004613196E-2</v>
       </c>
       <c r="AE33" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ33" s="36">
+        <f t="shared" si="38"/>
+        <v>7.017792502869237E-2</v>
+      </c>
+      <c r="AK33" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41252395147894866</v>
+      </c>
+      <c r="AL33" s="36">
+        <f t="shared" si="40"/>
+        <v>0.29277089734988604</v>
+      </c>
+      <c r="AM33" s="36">
+        <f t="shared" si="35"/>
+        <v>0.18464309067588924</v>
+      </c>
+      <c r="AN33" s="36">
+        <f t="shared" si="34"/>
+        <v>3.9884135466583606E-2</v>
+      </c>
+      <c r="AO33" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A34" s="67">
         <v>16</v>
       </c>
       <c r="C34" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18462441706438895</v>
       </c>
       <c r="D34" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35295622551810774</v>
       </c>
       <c r="E34" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46241935741750317</v>
       </c>
       <c r="F34" s="61">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="H34" s="77">
         <v>16</v>
       </c>
       <c r="J34" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551905466168577E-2</v>
       </c>
       <c r="K34" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150593047494409</v>
       </c>
       <c r="L34" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827665585440614</v>
       </c>
       <c r="M34" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571093357092567</v>
       </c>
       <c r="N34" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0954574633555435E-2</v>
       </c>
       <c r="O34" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="S34" s="36"/>
@@ -4536,75 +5847,102 @@
         <v>16</v>
       </c>
       <c r="Z34" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7017325768279762E-2</v>
       </c>
       <c r="AA34" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.40037098758389683</v>
       </c>
       <c r="AB34" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28153005478516974</v>
       </c>
       <c r="AC34" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19295875528802908</v>
       </c>
       <c r="AD34" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8122876574624831E-2</v>
       </c>
       <c r="AE34" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ34" s="36">
+        <f t="shared" si="38"/>
+        <v>7.0358546308791334E-2</v>
+      </c>
+      <c r="AK34" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41406446233243771</v>
+      </c>
+      <c r="AL34" s="36">
+        <f t="shared" si="40"/>
+        <v>0.2917653584165939</v>
+      </c>
+      <c r="AM34" s="36">
+        <f t="shared" si="35"/>
+        <v>0.1842404318763402</v>
+      </c>
+      <c r="AN34" s="36">
+        <f t="shared" si="34"/>
+        <v>3.9571201065836836E-2</v>
+      </c>
+      <c r="AO34" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A35" s="67">
         <v>17</v>
       </c>
       <c r="C35" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18447620265157533</v>
       </c>
       <c r="D35" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35285120033472794</v>
       </c>
       <c r="E35" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46267259701369656</v>
       </c>
       <c r="F35" s="61">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="H35" s="77">
         <v>17</v>
       </c>
       <c r="J35" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551932967716116E-2</v>
       </c>
       <c r="K35" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150617306845503</v>
       </c>
       <c r="L35" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827650305996371</v>
       </c>
       <c r="M35" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571089097376085</v>
       </c>
       <c r="N35" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0954499930104142E-2</v>
       </c>
       <c r="O35" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="S35" s="36"/>
@@ -4616,75 +5954,102 @@
         <v>17</v>
       </c>
       <c r="Z35" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7032640258455331E-2</v>
       </c>
       <c r="AA35" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.40059180943729905</v>
       </c>
       <c r="AB35" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28127240692950367</v>
       </c>
       <c r="AC35" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19297728975000206</v>
       </c>
       <c r="AD35" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8125853624740161E-2</v>
       </c>
       <c r="AE35" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ35" s="36">
+        <f t="shared" si="38"/>
+        <v>7.0481483082259544E-2</v>
+      </c>
+      <c r="AK35" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41517472196257998</v>
+      </c>
+      <c r="AL35" s="36">
+        <f t="shared" si="40"/>
+        <v>0.29101443299980484</v>
+      </c>
+      <c r="AM35" s="36">
+        <f t="shared" si="35"/>
+        <v>0.18398047578110299</v>
+      </c>
+      <c r="AN35" s="36">
+        <f t="shared" si="34"/>
+        <v>3.934888617425264E-2</v>
+      </c>
+      <c r="AO35" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A36" s="67">
         <v>18</v>
       </c>
       <c r="C36" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18436289033452108</v>
       </c>
       <c r="D36" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35277929235993127</v>
       </c>
       <c r="E36" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46285781730554754</v>
       </c>
       <c r="F36" s="61">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="H36" s="77">
         <v>18</v>
       </c>
       <c r="J36" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551946039331975E-2</v>
       </c>
       <c r="K36" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.3915062878248472</v>
       </c>
       <c r="L36" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.2782764314438898</v>
       </c>
       <c r="M36" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571087052994141</v>
       </c>
       <c r="N36" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0954464161989408E-2</v>
       </c>
       <c r="O36" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="S36" s="36"/>
@@ -4696,75 +6061,102 @@
         <v>18</v>
       </c>
       <c r="Z36" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7042538154912693E-2</v>
       </c>
       <c r="AA36" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.40074182306583517</v>
       </c>
       <c r="AB36" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28110216314727277</v>
       </c>
       <c r="AC36" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19298771560860914</v>
       </c>
       <c r="AD36" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8125760023370485E-2</v>
       </c>
       <c r="AE36" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ36" s="36">
+        <f t="shared" si="38"/>
+        <v>7.0564970232693661E-2</v>
+      </c>
+      <c r="AK36" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41597283375727501</v>
+      </c>
+      <c r="AL36" s="36">
+        <f t="shared" si="40"/>
+        <v>0.29045868806507047</v>
+      </c>
+      <c r="AM36" s="36">
+        <f t="shared" si="35"/>
+        <v>0.18381197849135167</v>
+      </c>
+      <c r="AN36" s="36">
+        <f t="shared" si="40"/>
+        <v>3.9191529453609097E-2</v>
+      </c>
+      <c r="AO36" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A37" s="67">
         <v>19</v>
       </c>
       <c r="C37" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.1842767643631201</v>
       </c>
       <c r="D37" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35272934883603002</v>
       </c>
       <c r="E37" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46299388680084974</v>
       </c>
       <c r="F37" s="61">
-        <f t="shared" ref="F37:F47" si="39">SUM(C37:E37)</f>
+        <f t="shared" ref="F37:F47" si="47">SUM(C37:E37)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="H37" s="77">
         <v>19</v>
       </c>
       <c r="J37" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551952261500853E-2</v>
       </c>
       <c r="K37" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150634222241337</v>
       </c>
       <c r="L37" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827639771155727</v>
       </c>
       <c r="M37" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571086073945165</v>
       </c>
       <c r="N37" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0954447065076717E-2</v>
       </c>
       <c r="O37" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="S37" s="36"/>
@@ -4776,75 +6168,102 @@
         <v>19</v>
       </c>
       <c r="Z37" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7048971701960988E-2</v>
       </c>
       <c r="AA37" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.40084396215310336</v>
       </c>
       <c r="AB37" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28098941370548963</v>
       </c>
       <c r="AC37" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19299341372208775</v>
       </c>
       <c r="AD37" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8124238717358508E-2</v>
       </c>
       <c r="AE37" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ37" s="36">
+        <f t="shared" si="38"/>
+        <v>7.0621554933015515E-2</v>
+      </c>
+      <c r="AK37" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41654519728452105</v>
+      </c>
+      <c r="AL37" s="36">
+        <f t="shared" si="40"/>
+        <v>0.29005041315805635</v>
+      </c>
+      <c r="AM37" s="36">
+        <f t="shared" si="35"/>
+        <v>0.18370236366376569</v>
+      </c>
+      <c r="AN37" s="36">
+        <f t="shared" si="40"/>
+        <v>3.9080470960641392E-2</v>
+      </c>
+      <c r="AO37" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A38" s="67">
         <v>20</v>
       </c>
       <c r="C38" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18421158480033453</v>
       </c>
       <c r="D38" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35269421516340521</v>
       </c>
       <c r="E38" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46309420003626012</v>
       </c>
       <c r="F38" s="61">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="H38" s="77">
         <v>20</v>
       </c>
       <c r="J38" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551955225894763E-2</v>
       </c>
       <c r="K38" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150636804682931</v>
       </c>
       <c r="L38" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827638176743591</v>
       </c>
       <c r="M38" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571085605782595</v>
       </c>
       <c r="N38" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0954438902013915E-2</v>
       </c>
       <c r="O38" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="S38" s="36"/>
@@ -4856,75 +6275,102 @@
         <v>20</v>
       </c>
       <c r="Z38" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7053179366500806E-2</v>
       </c>
       <c r="AA38" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.40091366525345989</v>
       </c>
       <c r="AB38" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28091456361434453</v>
       </c>
       <c r="AC38" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19299639173613833</v>
       </c>
       <c r="AD38" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8122200029556724E-2</v>
       </c>
       <c r="AE38" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ38" s="36">
+        <f t="shared" si="38"/>
+        <v>7.0659838625378432E-2</v>
+      </c>
+      <c r="AK38" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41695477019152738</v>
+      </c>
+      <c r="AL38" s="36">
+        <f t="shared" si="40"/>
+        <v>0.2897523075811777</v>
+      </c>
+      <c r="AM38" s="36">
+        <f t="shared" si="35"/>
+        <v>0.18363081729983566</v>
+      </c>
+      <c r="AN38" s="36">
+        <f t="shared" si="40"/>
+        <v>3.9002266302080792E-2</v>
+      </c>
+      <c r="AO38" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A39" s="67">
         <v>21</v>
       </c>
       <c r="C39" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18416241713564588</v>
       </c>
       <c r="D39" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35266922418606317</v>
       </c>
       <c r="E39" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46316835867829087</v>
       </c>
       <c r="F39" s="61">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="H39" s="77">
         <v>21</v>
       </c>
       <c r="J39" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551956638902141E-2</v>
       </c>
       <c r="K39" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150638031967999</v>
       </c>
       <c r="L39" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827637421256274</v>
       </c>
       <c r="M39" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571085382149012</v>
       </c>
       <c r="N39" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0954435007364888E-2</v>
       </c>
       <c r="O39" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="S39" s="36"/>
@@ -4936,75 +6382,102 @@
         <v>21</v>
       </c>
       <c r="Z39" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7055949554431699E-2</v>
       </c>
       <c r="AA39" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.40096134478908452</v>
       </c>
       <c r="AB39" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28086475063027577</v>
       </c>
       <c r="AC39" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19299783401878859</v>
       </c>
       <c r="AD39" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8120121007419673E-2</v>
       </c>
       <c r="AE39" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ39" s="36">
+        <f t="shared" si="38"/>
+        <v>7.0685699289391946E-2</v>
+      </c>
+      <c r="AK39" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41724726371752535</v>
+      </c>
+      <c r="AL39" s="36">
+        <f t="shared" si="40"/>
+        <v>0.28953576359570321</v>
+      </c>
+      <c r="AM39" s="36">
+        <f t="shared" si="35"/>
+        <v>0.18358397771036328</v>
+      </c>
+      <c r="AN39" s="36">
+        <f t="shared" si="40"/>
+        <v>3.8947295687016173E-2</v>
+      </c>
+      <c r="AO39" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A40" s="67">
         <v>22</v>
       </c>
       <c r="C40" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18412541862310017</v>
       </c>
       <c r="D40" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35265127953977665</v>
       </c>
       <c r="E40" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46322330183712318</v>
       </c>
       <c r="F40" s="61">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="H40" s="77">
         <v>22</v>
       </c>
       <c r="J40" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551957312594729E-2</v>
       </c>
       <c r="K40" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150638615671135</v>
       </c>
       <c r="L40" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827637062659238</v>
       </c>
       <c r="M40" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571085275400388</v>
       </c>
       <c r="N40" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0954433150097589E-2</v>
       </c>
       <c r="O40" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="S40" s="36"/>
@@ -5016,75 +6489,102 @@
         <v>22</v>
       </c>
       <c r="Z40" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7057786165652986E-2</v>
       </c>
       <c r="AA40" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.4009940372078224</v>
       </c>
       <c r="AB40" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28083151508693616</v>
       </c>
       <c r="AC40" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19299843286089824</v>
       </c>
       <c r="AD40" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8118228678690487E-2</v>
       </c>
       <c r="AE40" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ40" s="36">
+        <f t="shared" si="38"/>
+        <v>7.0703142944141678E-2</v>
+      </c>
+      <c r="AK40" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41745575840097737</v>
+      </c>
+      <c r="AL40" s="36">
+        <f t="shared" si="40"/>
+        <v>0.28937915697520245</v>
+      </c>
+      <c r="AM40" s="36">
+        <f t="shared" si="35"/>
+        <v>0.18355322952356012</v>
+      </c>
+      <c r="AN40" s="36">
+        <f t="shared" si="40"/>
+        <v>3.890871215611838E-2</v>
+      </c>
+      <c r="AO40" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A41" s="67">
         <v>23</v>
       </c>
       <c r="C41" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18409762901826493</v>
       </c>
       <c r="D41" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35263829284125198</v>
       </c>
       <c r="E41" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46326407814048309</v>
       </c>
       <c r="F41" s="61">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="H41" s="77">
         <v>23</v>
       </c>
       <c r="J41" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551957633829906E-2</v>
       </c>
       <c r="K41" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150638893434958</v>
       </c>
       <c r="L41" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827636892242413</v>
       </c>
       <c r="M41" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571085224471121</v>
       </c>
       <c r="N41" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0954432264685166E-2</v>
       </c>
       <c r="O41" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="S41" s="36"/>
@@ -5096,75 +6596,102 @@
         <v>23</v>
       </c>
       <c r="Z41" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7059012716527117E-2</v>
       </c>
       <c r="AA41" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.40101650739678252</v>
       </c>
       <c r="AB41" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28080928147843925</v>
       </c>
       <c r="AC41" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19299858775433917</v>
       </c>
       <c r="AD41" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8116610653912201E-2</v>
       </c>
       <c r="AE41" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ41" s="36">
+        <f t="shared" si="38"/>
+        <v>7.0714893437394552E-2</v>
+      </c>
+      <c r="AK41" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41760412258078933</v>
+      </c>
+      <c r="AL41" s="36">
+        <f t="shared" si="40"/>
+        <v>0.28926632669562946</v>
+      </c>
+      <c r="AM41" s="36">
+        <f t="shared" si="35"/>
+        <v>0.18353299515661847</v>
+      </c>
+      <c r="AN41" s="36">
+        <f t="shared" si="40"/>
+        <v>3.8881662129568277E-2</v>
+      </c>
+      <c r="AO41" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A42" s="67">
         <v>24</v>
       </c>
       <c r="C42" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18407678572166242</v>
       </c>
       <c r="D42" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35262883344584706</v>
       </c>
       <c r="E42" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46329438083249053</v>
       </c>
       <c r="F42" s="61">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="H42" s="77">
         <v>24</v>
       </c>
       <c r="J42" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551957787005739E-2</v>
       </c>
       <c r="K42" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150639025664624</v>
       </c>
       <c r="L42" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.2782763681118649</v>
       </c>
       <c r="M42" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.1957108520018162</v>
       </c>
       <c r="N42" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0954431842666919E-2</v>
       </c>
       <c r="O42" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="S42" s="36"/>
@@ -5176,75 +6703,102 @@
         <v>24</v>
       </c>
       <c r="Z42" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7059837965176353E-2</v>
       </c>
       <c r="AA42" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.4010319889552833</v>
       </c>
       <c r="AB42" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28079436730200391</v>
       </c>
       <c r="AC42" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19299852507578766</v>
       </c>
       <c r="AD42" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8115280701749115E-2</v>
       </c>
       <c r="AE42" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000004</v>
       </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ42" s="36">
+        <f t="shared" si="38"/>
+        <v>7.0722799029653338E-2</v>
+      </c>
+      <c r="AK42" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41770953078691297</v>
+      </c>
+      <c r="AL42" s="36">
+        <f t="shared" si="40"/>
+        <v>0.28918530398603259</v>
+      </c>
+      <c r="AM42" s="36">
+        <f t="shared" si="35"/>
+        <v>0.18351965024723649</v>
+      </c>
+      <c r="AN42" s="36">
+        <f t="shared" si="40"/>
+        <v>3.8862715950164613E-2</v>
+      </c>
+      <c r="AO42" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A43" s="67">
         <v>25</v>
       </c>
       <c r="C43" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18406116929779109</v>
       </c>
       <c r="D43" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35262190721080799</v>
       </c>
       <c r="E43" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46331692349140091</v>
       </c>
       <c r="F43" s="61">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="H43" s="77">
         <v>25</v>
       </c>
       <c r="J43" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551957860042566E-2</v>
       </c>
       <c r="K43" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150639088630251</v>
       </c>
       <c r="L43" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827636772610992</v>
       </c>
       <c r="M43" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571085188600201</v>
       </c>
       <c r="N43" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0954431641542975E-2</v>
       </c>
       <c r="O43" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="S43" s="36"/>
@@ -5256,75 +6810,102 @@
         <v>25</v>
       </c>
       <c r="Z43" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7060397375726999E-2</v>
       </c>
       <c r="AA43" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.4010426811956509</v>
       </c>
       <c r="AB43" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28078433493929722</v>
       </c>
       <c r="AC43" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19299836975664034</v>
       </c>
       <c r="AD43" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8114216732684881E-2</v>
       </c>
       <c r="AE43" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ43" s="36">
+        <f t="shared" si="38"/>
+        <v>7.0728111579391018E-2</v>
+      </c>
+      <c r="AK43" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41778431016051465</v>
+      </c>
+      <c r="AL43" s="36">
+        <f t="shared" si="40"/>
+        <v>0.28912729044804403</v>
+      </c>
+      <c r="AM43" s="36">
+        <f t="shared" si="35"/>
+        <v>0.18351083165585846</v>
+      </c>
+      <c r="AN43" s="36">
+        <f t="shared" si="40"/>
+        <v>3.8849456156191883E-2</v>
+      </c>
+      <c r="AO43" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A44" s="67">
         <v>26</v>
       </c>
       <c r="C44" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18404947866565369</v>
       </c>
       <c r="D44" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35261681448435223</v>
       </c>
       <c r="E44" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46333370684999403</v>
       </c>
       <c r="F44" s="61">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="H44" s="77">
         <v>26</v>
       </c>
       <c r="J44" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551957894865697E-2</v>
       </c>
       <c r="K44" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150639118619485</v>
       </c>
       <c r="L44" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827636754244989</v>
       </c>
       <c r="M44" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571085183079054</v>
       </c>
       <c r="N44" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.095443154569908E-2</v>
       </c>
       <c r="O44" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="S44" s="36"/>
@@ -5336,75 +6917,102 @@
         <v>26</v>
       </c>
       <c r="Z44" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.706077939231686E-2</v>
       </c>
       <c r="AA44" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.40105008339742731</v>
       </c>
       <c r="AB44" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28077756709139312</v>
       </c>
       <c r="AC44" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19299818801486313</v>
       </c>
       <c r="AD44" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8113382104000001E-2</v>
       </c>
       <c r="AE44" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000004</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ44" s="36">
+        <f t="shared" si="38"/>
+        <v>7.0731677613247501E-2</v>
+      </c>
+      <c r="AK44" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41783728837575562</v>
+      </c>
+      <c r="AL44" s="36">
+        <f t="shared" si="40"/>
+        <v>0.2890858580853683</v>
+      </c>
+      <c r="AM44" s="36">
+        <f t="shared" si="35"/>
+        <v>0.18350499382783569</v>
+      </c>
+      <c r="AN44" s="36">
+        <f t="shared" si="40"/>
+        <v>3.884018209779283E-2</v>
+      </c>
+      <c r="AO44" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A45" s="67">
         <v>27</v>
       </c>
       <c r="C45" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.1840407324656631</v>
       </c>
       <c r="D45" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35261305741055055</v>
       </c>
       <c r="E45" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.4633462101237863</v>
       </c>
       <c r="F45" s="61">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="H45" s="77">
         <v>27</v>
       </c>
       <c r="J45" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551957911467833E-2</v>
       </c>
       <c r="K45" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150639132904785</v>
       </c>
       <c r="L45" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827636745498391</v>
       </c>
       <c r="M45" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571085180447306</v>
       </c>
       <c r="N45" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0954431500027398E-2</v>
       </c>
       <c r="O45" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="S45" s="36"/>
@@ -5416,75 +7024,102 @@
         <v>27</v>
       </c>
       <c r="Z45" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7061042143320274E-2</v>
       </c>
       <c r="AA45" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.40105522002306571</v>
       </c>
       <c r="AB45" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28077298814473017</v>
       </c>
       <c r="AC45" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19299801267618105</v>
       </c>
       <c r="AD45" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8112737012703246E-2</v>
       </c>
       <c r="AE45" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ45" s="36">
+        <f t="shared" si="38"/>
+        <v>7.0734068722106039E-2</v>
+      </c>
+      <c r="AK45" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41787477382847132</v>
+      </c>
+      <c r="AL45" s="36">
+        <f t="shared" si="40"/>
+        <v>0.28905633507607431</v>
+      </c>
+      <c r="AM45" s="36">
+        <f t="shared" si="35"/>
+        <v>0.18350112310969957</v>
+      </c>
+      <c r="AN45" s="36">
+        <f t="shared" si="40"/>
+        <v>3.8833699263648748E-2</v>
+      </c>
+      <c r="AO45" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A46" s="67">
         <v>28</v>
       </c>
       <c r="C46" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.1840341922848418</v>
       </c>
       <c r="D46" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35261027839427012</v>
       </c>
       <c r="E46" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46335552932088803</v>
       </c>
       <c r="F46" s="61">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="H46" s="77">
         <v>28</v>
       </c>
       <c r="J46" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551957919382446E-2</v>
       </c>
       <c r="K46" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150639139710264</v>
       </c>
       <c r="L46" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827636741332118</v>
       </c>
       <c r="M46" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571085179192951</v>
       </c>
       <c r="N46" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0954431478264334E-2</v>
       </c>
       <c r="O46" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="S46" s="36"/>
@@ -5496,75 +7131,102 @@
         <v>28</v>
       </c>
       <c r="Z46" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7061224102203748E-2</v>
       </c>
       <c r="AA46" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.40105879276119949</v>
       </c>
       <c r="AB46" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28076988096019356</v>
       </c>
       <c r="AC46" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19299785804966826</v>
       </c>
       <c r="AD46" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8112244126735255E-2</v>
       </c>
       <c r="AE46" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ46" s="36">
+        <f t="shared" si="38"/>
+        <v>7.073567033315202E-2</v>
+      </c>
+      <c r="AK46" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41790126591516408</v>
+      </c>
+      <c r="AL46" s="36">
+        <f t="shared" si="40"/>
+        <v>0.28903534102861816</v>
+      </c>
+      <c r="AM46" s="36">
+        <f t="shared" si="35"/>
+        <v>0.18349855302238849</v>
+      </c>
+      <c r="AN46" s="36">
+        <f t="shared" si="40"/>
+        <v>3.8829169700677332E-2</v>
+      </c>
+      <c r="AO46" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A47" s="67">
         <v>29</v>
       </c>
       <c r="C47" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18402930353331201</v>
       </c>
       <c r="D47" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35260821857365254</v>
       </c>
       <c r="E47" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46336247789303536</v>
       </c>
       <c r="F47" s="61">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="H47" s="77">
         <v>29</v>
       </c>
       <c r="J47" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551957923155276E-2</v>
       </c>
       <c r="K47" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.3915063914295262</v>
       </c>
       <c r="L47" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827636739347328</v>
       </c>
       <c r="M47" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.1957108517859513</v>
       </c>
       <c r="N47" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0954431467894102E-2</v>
       </c>
       <c r="O47" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="S47" s="36"/>
@@ -5576,75 +7238,102 @@
         <v>29</v>
       </c>
       <c r="Z47" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7061350921273744E-2</v>
       </c>
       <c r="AA47" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.40106128338136365</v>
       </c>
       <c r="AB47" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28076776616767646</v>
       </c>
       <c r="AC47" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19299772856272412</v>
       </c>
       <c r="AD47" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.8111870966962298E-2</v>
       </c>
       <c r="AE47" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="AJ47" s="36">
+        <f t="shared" si="38"/>
+        <v>7.0736742016313178E-2</v>
+      </c>
+      <c r="AK47" s="36">
+        <f t="shared" si="39"/>
+        <v>0.4179199680921436</v>
+      </c>
+      <c r="AL47" s="36">
+        <f t="shared" si="40"/>
+        <v>0.28902043934903632</v>
+      </c>
+      <c r="AM47" s="36">
+        <f t="shared" si="35"/>
+        <v>0.18349684436187641</v>
+      </c>
+      <c r="AN47" s="36">
+        <f t="shared" si="40"/>
+        <v>3.8826006180630479E-2</v>
+      </c>
+      <c r="AO47" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.35">
       <c r="A48" s="67">
         <v>30</v>
       </c>
       <c r="C48" s="61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.18402565026547044</v>
       </c>
       <c r="D48" s="61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.35260668935619027</v>
       </c>
       <c r="E48" s="61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.46336766037833926</v>
       </c>
       <c r="F48" s="61">
-        <f t="shared" ref="F48" si="40">SUM(C48:E48)</f>
+        <f t="shared" ref="F48" si="48">SUM(C48:E48)</f>
         <v>1</v>
       </c>
       <c r="H48" s="77">
         <v>30</v>
       </c>
       <c r="J48" s="36">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7.3551957924953656E-2</v>
       </c>
       <c r="K48" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.39150639144497468</v>
       </c>
       <c r="L48" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.27827636738401695</v>
       </c>
       <c r="M48" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.19571085178310224</v>
       </c>
       <c r="N48" s="36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.0954431462952624E-2</v>
       </c>
       <c r="O48" s="61">
-        <f t="shared" ref="O48" si="41">SUM(J48:N48)</f>
+        <f t="shared" ref="O48" si="49">SUM(J48:N48)</f>
         <v>1</v>
       </c>
       <c r="S48" s="36"/>
@@ -5656,131 +7345,200 @@
         <v>30</v>
       </c>
       <c r="Z48" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6.7061439833919143E-2</v>
       </c>
       <c r="AA48" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.40106302346210071</v>
       </c>
       <c r="AB48" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0.28076632247765299</v>
       </c>
       <c r="AC48" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19299762368987672</v>
       </c>
       <c r="AD48" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>5.811159053645075E-2</v>
       </c>
       <c r="AE48" s="61">
-        <f t="shared" si="36"/>
+        <f t="shared" si="43"/>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="9:31" x14ac:dyDescent="0.35">
+      <c r="AJ48" s="36">
+        <f t="shared" si="38"/>
+        <v>7.0737458376014847E-2</v>
+      </c>
+      <c r="AK48" s="36">
+        <f t="shared" si="39"/>
+        <v>0.41793315740868014</v>
+      </c>
+      <c r="AL48" s="36">
+        <f t="shared" si="40"/>
+        <v>0.28900987958487484</v>
+      </c>
+      <c r="AM48" s="36">
+        <f t="shared" si="35"/>
+        <v>0.1834957071073231</v>
+      </c>
+      <c r="AN48" s="36">
+        <f t="shared" si="40"/>
+        <v>3.8823797523107016E-2</v>
+      </c>
+      <c r="AO48" s="61">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="9:41" x14ac:dyDescent="0.35">
       <c r="I52" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="J52" s="121">
+      <c r="J52" s="126">
         <f>J48+K48</f>
         <v>0.46505834936992835</v>
       </c>
-      <c r="K52" s="121"/>
+      <c r="K52" s="126"/>
       <c r="L52" s="36">
         <f>L48</f>
         <v>0.27827636738401695</v>
       </c>
-      <c r="M52" s="121">
+      <c r="M52" s="126">
         <f>M48+N48</f>
         <v>0.25666528324605486</v>
       </c>
-      <c r="N52" s="121"/>
+      <c r="N52" s="126"/>
       <c r="O52" s="61">
         <f>SUM(J52:N52)</f>
         <v>1</v>
       </c>
       <c r="R52" s="69"/>
-      <c r="S52" s="121"/>
-      <c r="T52" s="121"/>
+      <c r="S52" s="126"/>
+      <c r="T52" s="126"/>
       <c r="U52" s="36"/>
-      <c r="V52" s="121"/>
-      <c r="W52" s="121"/>
+      <c r="V52" s="126"/>
+      <c r="W52" s="126"/>
       <c r="Y52" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="Z52" s="121">
+      <c r="Z52" s="126">
         <f>Z48+AA48</f>
         <v>0.46812446329601987</v>
       </c>
-      <c r="AA52" s="121"/>
+      <c r="AA52" s="126"/>
       <c r="AB52" s="36">
         <f>AB48</f>
         <v>0.28076632247765299</v>
       </c>
-      <c r="AC52" s="121">
+      <c r="AC52" s="126">
         <f>AC48+AD48</f>
         <v>0.25110921422632748</v>
       </c>
-      <c r="AD52" s="121"/>
+      <c r="AD52" s="126"/>
       <c r="AE52" s="61">
         <f>SUM(Z52:AD52)</f>
         <v>1.0000000000000004</v>
       </c>
-    </row>
-    <row r="54" spans="9:31" x14ac:dyDescent="0.35">
+      <c r="AI52" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ52" s="126">
+        <f>AJ48+AK48</f>
+        <v>0.48867061578469501</v>
+      </c>
+      <c r="AK52" s="126"/>
+      <c r="AL52" s="36">
+        <f>AL48</f>
+        <v>0.28900987958487484</v>
+      </c>
+      <c r="AM52" s="126">
+        <f>AM48+AN48</f>
+        <v>0.22231950463043013</v>
+      </c>
+      <c r="AN52" s="126"/>
+      <c r="AO52" s="61">
+        <f>SUM(AJ52:AN52)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="9:41" x14ac:dyDescent="0.35">
       <c r="I54" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="J54" s="122">
+      <c r="J54" s="127">
         <f>ABS(J52-C36)</f>
         <v>0.28069545903540727</v>
       </c>
-      <c r="K54" s="122"/>
+      <c r="K54" s="127"/>
       <c r="L54" s="73">
         <f>ABS(L52-D36)</f>
         <v>7.450292497591432E-2</v>
       </c>
-      <c r="M54" s="122">
+      <c r="M54" s="127">
         <f>ABS(M52-E36)</f>
         <v>0.20619253405949267</v>
       </c>
-      <c r="N54" s="122"/>
+      <c r="N54" s="127"/>
       <c r="O54" s="74">
         <f>SUM(J54:N54)</f>
         <v>0.56139091807081432</v>
       </c>
       <c r="R54" s="72"/>
-      <c r="S54" s="122"/>
-      <c r="T54" s="122"/>
+      <c r="S54" s="127"/>
+      <c r="T54" s="127"/>
       <c r="U54" s="97"/>
-      <c r="V54" s="122"/>
-      <c r="W54" s="122"/>
+      <c r="V54" s="127"/>
+      <c r="W54" s="127"/>
       <c r="Y54" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="Z54" s="122">
+      <c r="Z54" s="127">
         <f>ABS(Z52-J52)</f>
         <v>3.0661139260915182E-3</v>
       </c>
-      <c r="AA54" s="122"/>
+      <c r="AA54" s="127"/>
       <c r="AB54" s="97">
         <f>ABS(AB52-L52)</f>
         <v>2.4899550936360315E-3</v>
       </c>
-      <c r="AC54" s="122">
+      <c r="AC54" s="127">
         <f>ABS(AC52-M52)</f>
         <v>5.5560690197273832E-3</v>
       </c>
-      <c r="AD54" s="122"/>
+      <c r="AD54" s="127"/>
       <c r="AE54" s="74">
         <f>SUM(Z54:AD54)</f>
         <v>1.1112138039454933E-2</v>
       </c>
-    </row>
-    <row r="55" spans="9:31" x14ac:dyDescent="0.35">
+      <c r="AI54" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ54" s="127">
+        <f>ABS(AJ52-T52)</f>
+        <v>0.48867061578469501</v>
+      </c>
+      <c r="AK54" s="127"/>
+      <c r="AL54" s="119">
+        <f>ABS(AL52-V52)</f>
+        <v>0.28900987958487484</v>
+      </c>
+      <c r="AM54" s="127">
+        <f>ABS(AM52-W52)</f>
+        <v>0.22231950463043013</v>
+      </c>
+      <c r="AN54" s="127"/>
+      <c r="AO54" s="74">
+        <f>SUM(AJ54:AN54)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="9:41" x14ac:dyDescent="0.35">
       <c r="Y55" s="112" t="s">
         <v>70</v>
       </c>
@@ -5808,16 +7566,52 @@
         <f>SUM(Z55:AD55)</f>
         <v>2.35278923350591E-2</v>
       </c>
-    </row>
-    <row r="56" spans="9:31" x14ac:dyDescent="0.35">
+      <c r="AI55" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ55" s="113">
+        <f>ABS(AJ48-AO11)</f>
+        <v>7.0737458376014847E-2</v>
+      </c>
+      <c r="AK55" s="113">
+        <f>ABS(AK48-AO12)</f>
+        <v>0.41793315740868014</v>
+      </c>
+      <c r="AL55" s="113">
+        <f>ABS(AL48-AO13)</f>
+        <v>0.28900987958487484</v>
+      </c>
+      <c r="AM55" s="113">
+        <f>ABS(AM48-AO14)</f>
+        <v>0.1834957071073231</v>
+      </c>
+      <c r="AN55" s="113">
+        <f>ABS(AN48-AO15)</f>
+        <v>3.8823797523107016E-2</v>
+      </c>
+      <c r="AO55" s="74">
+        <f>SUM(AJ55:AN55)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="9:41" x14ac:dyDescent="0.35">
       <c r="Z56" s="113"/>
       <c r="AA56" s="113"/>
       <c r="AB56" s="113"/>
       <c r="AC56" s="113"/>
       <c r="AD56" s="113"/>
+      <c r="AJ56" s="113"/>
+      <c r="AK56" s="113"/>
+      <c r="AL56" s="113"/>
+      <c r="AM56" s="113"/>
+      <c r="AN56" s="113"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="AJ52:AK52"/>
+    <mergeCell ref="AM52:AN52"/>
+    <mergeCell ref="AJ54:AK54"/>
+    <mergeCell ref="AM54:AN54"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="J52:K52"/>
@@ -5836,6 +7630,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>